--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785640.3088217</v>
+        <v>3783752.727305299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.27286869437564</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>282.1831745280934</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>296.7607853996629</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211455</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="15">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065117</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>158.3917916061213</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918803</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.61035505917209</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>78.67531269947902</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>42.20569823125389</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789552</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224542</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>381.6292235663332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>223.8808509988633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>87.55194009751156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.939751500713</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.939751500713</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1149.674052893962</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>763.8858002957179</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>756.9402995465144</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>338.9764914447013</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247703</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005406</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>764.6872557005406</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>353.7013509109331</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,25 +5221,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,16 +5267,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799363</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,22 +5461,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018334</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5495,46 +5495,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.6859735286132</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>220.7662930359739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1174986139256</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1174986139256</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441653</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542186</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542186</v>
+        <v>326.3571123076812</v>
       </c>
       <c r="D31" t="n">
-        <v>360.062417126462</v>
+        <v>232.0013381767162</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>139.8491098756938</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>139.8491098756938</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,10 +6938,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,49 +7096,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504514</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,31 +7567,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7637,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>253.7371603504738</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>202.5230052237945</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775594</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.8051956154455</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709159</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.17985890344634</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>128.1312067304697</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.0824928447107</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0051179590403</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.73690369017623</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692643.3405159907</v>
+        <v>692643.3405159906</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147612</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887489</v>
+        <v>752620.9540887491</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
         <v>759463.6371244614</v>
       </c>
       <c r="N2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="O2" t="n">
         <v>759463.6371244614</v>
       </c>
-      <c r="O2" t="n">
-        <v>759463.6371244611</v>
-      </c>
       <c r="P2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244614</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106723</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.18794001613</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745284</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745282</v>
+        <v>510971.6912745286</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227777</v>
+        <v>83984.33137630581</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791738</v>
+        <v>609144.3678532022</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791737</v>
+        <v>609144.367853202</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791739</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791738</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.607786581</v>
+        <v>432721.1486606089</v>
       </c>
       <c r="K6" t="n">
-        <v>571490.9101546133</v>
+        <v>571472.416416679</v>
       </c>
       <c r="L6" t="n">
-        <v>606812.2296753777</v>
+        <v>606812.2296753778</v>
       </c>
       <c r="M6" t="n">
         <v>482354.1212424078</v>
       </c>
       <c r="N6" t="n">
-        <v>617155.1364762448</v>
+        <v>617155.1364762455</v>
       </c>
       <c r="O6" t="n">
-        <v>617155.1364762445</v>
+        <v>617155.1364762447</v>
       </c>
       <c r="P6" t="n">
-        <v>572992.5311733987</v>
+        <v>572992.5311733991</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,7 +26759,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>11.92709049416136</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>41.7395982362637</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>117.0233846211321</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.306311380905503e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>586.9317337484866</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>10.73738595686864</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798188</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>343.3468637082223</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
